--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Fgf10-Fgfrl1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Fgf10-Fgfrl1.xlsx
@@ -549,34 +549,34 @@
         <v>1</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.6019246666666668</v>
+        <v>1.082745</v>
       </c>
       <c r="N2">
-        <v>1.805774</v>
+        <v>3.248235</v>
       </c>
       <c r="O2">
-        <v>0.05746655956902962</v>
+        <v>0.09436944533780973</v>
       </c>
       <c r="P2">
-        <v>0.05746655956902962</v>
+        <v>0.09436944533780973</v>
       </c>
       <c r="Q2">
-        <v>0.8563903259155558</v>
+        <v>1.5404790579</v>
       </c>
       <c r="R2">
-        <v>7.70751293324</v>
+        <v>13.8643115211</v>
       </c>
       <c r="S2">
-        <v>0.05746655956902962</v>
+        <v>0.09436944533780973</v>
       </c>
       <c r="T2">
-        <v>0.05746655956902962</v>
+        <v>0.09436944533780973</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -617,28 +617,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>5.794888999999999</v>
+        <v>5.794889</v>
       </c>
       <c r="N3">
         <v>17.384667</v>
       </c>
       <c r="O3">
-        <v>0.5532458667270893</v>
+        <v>0.5050685625185755</v>
       </c>
       <c r="P3">
-        <v>0.5532458667270894</v>
+        <v>0.5050685625185755</v>
       </c>
       <c r="Q3">
-        <v>8.244697641046665</v>
+        <v>8.244697641046667</v>
       </c>
       <c r="R3">
-        <v>74.20227876941998</v>
+        <v>74.20227876941999</v>
       </c>
       <c r="S3">
-        <v>0.5532458667270893</v>
+        <v>0.5050685625185755</v>
       </c>
       <c r="T3">
-        <v>0.5532458667270894</v>
+        <v>0.5050685625185755</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>3.710185666666666</v>
+        <v>3.962827666666667</v>
       </c>
       <c r="N4">
-        <v>11.130557</v>
+        <v>11.888483</v>
       </c>
       <c r="O4">
-        <v>0.3542164284550445</v>
+        <v>0.345390511036911</v>
       </c>
       <c r="P4">
-        <v>0.3542164284550445</v>
+        <v>0.3453905110369109</v>
       </c>
       <c r="Q4">
-        <v>5.278679024535555</v>
+        <v>5.638126272175557</v>
       </c>
       <c r="R4">
-        <v>47.50811122082</v>
+        <v>50.74313644958</v>
       </c>
       <c r="S4">
-        <v>0.3542164284550445</v>
+        <v>0.345390511036911</v>
       </c>
       <c r="T4">
-        <v>0.3542164284550445</v>
+        <v>0.3453905110369109</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -735,34 +735,34 @@
         <v>1</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.3673473333333333</v>
+        <v>0.6330083333333333</v>
       </c>
       <c r="N5">
-        <v>1.102042</v>
+        <v>1.899025</v>
       </c>
       <c r="O5">
-        <v>0.03507114524883653</v>
+        <v>0.05517148110670383</v>
       </c>
       <c r="P5">
-        <v>0.03507114524883653</v>
+        <v>0.05517148110670383</v>
       </c>
       <c r="Q5">
-        <v>0.522644642991111</v>
+        <v>0.9006147162777777</v>
       </c>
       <c r="R5">
-        <v>4.70380178692</v>
+        <v>8.1055324465</v>
       </c>
       <c r="S5">
-        <v>0.03507114524883653</v>
+        <v>0.05517148110670383</v>
       </c>
       <c r="T5">
-        <v>0.03507114524883653</v>
+        <v>0.05517148110670383</v>
       </c>
     </row>
   </sheetData>
